--- a/Uloha3/uloha3.xlsx
+++ b/Uloha3/uloha3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="8_{3B7C19A7-7171-483E-AB79-45561070FBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE8B8F3E-E33D-4010-B3FD-2A5FFADF12AB}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="8_{3B7C19A7-7171-483E-AB79-45561070FBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{230FFD1F-E3A2-4BF7-B6AA-DFA335672B4F}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{95EA6587-CB45-4F22-B1BF-E3CCC4A0F475}"/>
+    <workbookView minimized="1" xWindow="16680" yWindow="288" windowWidth="30720" windowHeight="16272" activeTab="2" xr2:uid="{95EA6587-CB45-4F22-B1BF-E3CCC4A0F475}"/>
   </bookViews>
   <sheets>
     <sheet name="3A" sheetId="1" r:id="rId1"/>
@@ -1221,12 +1221,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1244,6 +1238,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1259,6 +1259,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1580,7 +1584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836AC0A8-19D2-40E3-94C9-12F77D4498D9}">
   <dimension ref="C2:BF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:K8"/>
     </sheetView>
   </sheetViews>
@@ -1606,7 +1610,7 @@
       </c>
     </row>
     <row r="3" spans="3:58" ht="16.2" thickBot="1">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="59" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1740,7 +1744,7 @@
       </c>
     </row>
     <row r="4" spans="3:58" ht="15" thickBot="1">
-      <c r="C4" s="43"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="13" t="s">
         <v>23</v>
       </c>
@@ -1824,22 +1828,22 @@
       <c r="D5" s="20">
         <v>2.9</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="42">
         <v>3.2450649999999994E-5</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="45">
         <v>1.7198499999999998E-5</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="46">
         <v>1.8871258999999998</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="50">
         <v>119.0723769164655</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="53">
         <v>12.619441757061946</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="56">
         <v>2.5700703641693919E-2</v>
       </c>
       <c r="K5" s="22">
@@ -1906,22 +1910,22 @@
       <c r="D6" s="12">
         <v>2.75</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="43">
         <v>1.5235699999999999E-5</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="43">
         <v>8.5504000000000003E-6</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="47">
         <v>1.7828632000000004</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="51">
         <v>211.1111958803223</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="54">
         <v>23.682265232724784</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="57">
         <v>2.1833911781847501E-2</v>
       </c>
       <c r="K6" s="17">
@@ -1982,22 +1986,22 @@
       <c r="D7" s="12">
         <v>3.1</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="43">
         <v>8.1763450000000014E-5</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="43">
         <v>8.7566499999999986E-6</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="48">
         <v>9.3446347000000003</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="51">
         <v>2198.9306505243562</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="54">
         <v>47.062955826927215</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="57">
         <v>0.14542325428228994</v>
       </c>
       <c r="K7" s="17" t="s">
@@ -2058,22 +2062,22 @@
       <c r="D8" s="13">
         <v>2.6</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="44">
         <v>5.9620099999999995E-5</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="44">
         <v>8.4692000000000002E-6</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="49">
         <v>7.0438273000000011</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="52">
         <v>1646.3029684646431</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="55">
         <v>46.744557989507861</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="58">
         <v>7.7108727849549544E-2</v>
       </c>
       <c r="K8" s="18">
@@ -2598,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EC6CF8-48A5-48DE-8C9D-F50D51D590EB}">
   <dimension ref="D5:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
